--- a/uniqorn-frontend/public/data/Previous_Ultimate_Uniqorn_Games_Master.xlsx
+++ b/uniqorn-frontend/public/data/Previous_Ultimate_Uniqorn_Games_Master.xlsx
@@ -3536,31 +3536,31 @@
         <v>43475</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E52" t="s">
+        <v>442</v>
+      </c>
+      <c r="F52" t="s">
         <v>431</v>
       </c>
-      <c r="F52" t="s">
-        <v>442</v>
-      </c>
       <c r="G52">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H52">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
         <v>0</v>
-      </c>
-      <c r="K52">
-        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3571,31 +3571,31 @@
         <v>43475</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E53" t="s">
+        <v>431</v>
+      </c>
+      <c r="F53" t="s">
         <v>442</v>
       </c>
-      <c r="F53" t="s">
-        <v>431</v>
-      </c>
       <c r="G53">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -12111,31 +12111,31 @@
         <v>32960</v>
       </c>
       <c r="C297" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D297" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="E297" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F297" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G297">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="H297">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I297">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K297">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -12146,31 +12146,31 @@
         <v>32960</v>
       </c>
       <c r="C298" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D298" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="E298" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F298" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G298">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H298">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I298">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K298">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -12671,31 +12671,31 @@
         <v>32864</v>
       </c>
       <c r="C313" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D313" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E313" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F313" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="G313">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I313">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J313">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K313">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -12706,31 +12706,31 @@
         <v>32864</v>
       </c>
       <c r="C314" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D314" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E314" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F314" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="G314">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H314">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I314">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J314">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K314">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -13336,31 +13336,31 @@
         <v>32511</v>
       </c>
       <c r="C332" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="D332" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E332" t="s">
+        <v>441</v>
+      </c>
+      <c r="F332" t="s">
         <v>447</v>
-      </c>
-      <c r="F332" t="s">
-        <v>441</v>
       </c>
       <c r="G332">
         <v>26</v>
       </c>
       <c r="H332">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J332">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -13371,31 +13371,31 @@
         <v>32511</v>
       </c>
       <c r="C333" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="D333" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E333" t="s">
+        <v>447</v>
+      </c>
+      <c r="F333" t="s">
         <v>441</v>
-      </c>
-      <c r="F333" t="s">
-        <v>447</v>
       </c>
       <c r="G333">
         <v>26</v>
       </c>
       <c r="H333">
+        <v>24</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="J333">
         <v>0</v>
       </c>
-      <c r="I333">
-        <v>13</v>
-      </c>
-      <c r="J333">
-        <v>5</v>
-      </c>
       <c r="K333">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -14421,31 +14421,31 @@
         <v>31831</v>
       </c>
       <c r="C363" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D363" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E363" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F363" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="G363">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="H363">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I363">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J363">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K363">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -14456,31 +14456,31 @@
         <v>31831</v>
       </c>
       <c r="C364" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D364" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="E364" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="F364" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="G364">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="H364">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I364">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J364">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K364">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -16801,28 +16801,28 @@
         <v>30352</v>
       </c>
       <c r="C431" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="D431" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="E431" t="s">
+        <v>447</v>
+      </c>
+      <c r="F431" t="s">
         <v>422</v>
       </c>
-      <c r="F431" t="s">
-        <v>447</v>
-      </c>
       <c r="G431">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H431">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I431">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J431">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K431">
         <v>0</v>
@@ -16836,28 +16836,28 @@
         <v>30352</v>
       </c>
       <c r="C432" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="D432" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="E432" t="s">
+        <v>422</v>
+      </c>
+      <c r="F432" t="s">
         <v>447</v>
       </c>
-      <c r="F432" t="s">
-        <v>422</v>
-      </c>
       <c r="G432">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H432">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I432">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J432">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K432">
         <v>0</v>
